--- a/public/download/actualisation/GHG-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/GHG-donnees-branches-2018_actualisation-2021.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>EMPREINTE DES COMPTES DE PRODUCTION PAR BRANCHE</t>
   </si>
@@ -934,7 +934,7 @@
     <t xml:space="preserve">2575</t>
   </si>
   <si>
-    <t xml:space="preserve">2659</t>
+    <t xml:space="preserve">2658,9</t>
   </si>
   <si>
     <t xml:space="preserve">46079</t>
@@ -943,7 +943,7 @@
     <t xml:space="preserve">2315</t>
   </si>
   <si>
-    <t xml:space="preserve">2390</t>
+    <t xml:space="preserve">2390,5</t>
   </si>
   <si>
     <t xml:space="preserve">217841</t>
@@ -961,120 +961,123 @@
     <t xml:space="preserve">1128</t>
   </si>
   <si>
+    <t xml:space="preserve">1164,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1260,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2172,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1890,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1637,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">992,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1129,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1062,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1016,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1357,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53431</t>
+  </si>
+  <si>
     <t xml:space="preserve">1165</t>
   </si>
   <si>
-    <t xml:space="preserve">50770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53431</t>
-  </si>
-  <si>
     <t xml:space="preserve">1203</t>
   </si>
   <si>
@@ -1084,31 +1087,34 @@
     <t xml:space="preserve">662</t>
   </si>
   <si>
+    <t xml:space="preserve">683,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1008,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115922</t>
+  </si>
+  <si>
     <t xml:space="preserve">684</t>
   </si>
   <si>
-    <t xml:space="preserve">451825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">706</t>
+    <t xml:space="preserve">706,3</t>
   </si>
   <si>
     <t xml:space="preserve">63985</t>
@@ -1117,7 +1123,7 @@
     <t xml:space="preserve">566</t>
   </si>
   <si>
-    <t xml:space="preserve">584</t>
+    <t xml:space="preserve">584,4</t>
   </si>
   <si>
     <t xml:space="preserve">58702</t>
@@ -1126,7 +1132,7 @@
     <t xml:space="preserve">482</t>
   </si>
   <si>
-    <t xml:space="preserve">498</t>
+    <t xml:space="preserve">497,7</t>
   </si>
   <si>
     <t xml:space="preserve">114519</t>
@@ -1135,7 +1141,7 @@
     <t xml:space="preserve">292</t>
   </si>
   <si>
-    <t xml:space="preserve">302</t>
+    <t xml:space="preserve">301,5</t>
   </si>
   <si>
     <t xml:space="preserve">237250</t>
@@ -1153,13 +1159,13 @@
     <t xml:space="preserve">298</t>
   </si>
   <si>
-    <t xml:space="preserve">308</t>
+    <t xml:space="preserve">307,7</t>
   </si>
   <si>
     <t xml:space="preserve">290235</t>
   </si>
   <si>
-    <t xml:space="preserve">319</t>
+    <t xml:space="preserve">319,1</t>
   </si>
   <si>
     <t xml:space="preserve">74905</t>
@@ -1168,7 +1174,7 @@
     <t xml:space="preserve">449</t>
   </si>
   <si>
-    <t xml:space="preserve">464</t>
+    <t xml:space="preserve">463,6</t>
   </si>
   <si>
     <t xml:space="preserve">45495</t>
@@ -1177,7 +1183,7 @@
     <t xml:space="preserve">438</t>
   </si>
   <si>
-    <t xml:space="preserve">452</t>
+    <t xml:space="preserve">452,3</t>
   </si>
   <si>
     <t xml:space="preserve">250449</t>
@@ -1186,7 +1192,7 @@
     <t xml:space="preserve">391</t>
   </si>
   <si>
-    <t xml:space="preserve">404</t>
+    <t xml:space="preserve">403,7</t>
   </si>
   <si>
     <t xml:space="preserve">196594</t>
@@ -1195,7 +1201,7 @@
     <t xml:space="preserve">355</t>
   </si>
   <si>
-    <t xml:space="preserve">367</t>
+    <t xml:space="preserve">366,6</t>
   </si>
   <si>
     <t xml:space="preserve">137165</t>
@@ -1204,19 +1210,22 @@
     <t xml:space="preserve">237</t>
   </si>
   <si>
-    <t xml:space="preserve">245</t>
+    <t xml:space="preserve">244,7</t>
   </si>
   <si>
     <t xml:space="preserve">169428</t>
   </si>
   <si>
+    <t xml:space="preserve">277,8</t>
+  </si>
+  <si>
     <t xml:space="preserve">84247</t>
   </si>
   <si>
     <t xml:space="preserve">223</t>
   </si>
   <si>
-    <t xml:space="preserve">230</t>
+    <t xml:space="preserve">230,3</t>
   </si>
   <si>
     <t xml:space="preserve">54651</t>
@@ -1225,7 +1234,7 @@
     <t xml:space="preserve">486</t>
   </si>
   <si>
-    <t xml:space="preserve">502</t>
+    <t xml:space="preserve">501,8</t>
   </si>
   <si>
     <t xml:space="preserve">47773</t>
@@ -1234,7 +1243,7 @@
     <t xml:space="preserve">348</t>
   </si>
   <si>
-    <t xml:space="preserve">359</t>
+    <t xml:space="preserve">359,3</t>
   </si>
   <si>
     <t xml:space="preserve">4918916</t>
@@ -1243,7 +1252,7 @@
     <t xml:space="preserve">779</t>
   </si>
   <si>
-    <t xml:space="preserve">804</t>
+    <t xml:space="preserve">804,4</t>
   </si>
 </sst>
 </file>
@@ -3144,10 +3153,10 @@
         <v>336</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="12"/>
@@ -3160,13 +3169,13 @@
         <v>184</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="12"/>
@@ -3179,13 +3188,13 @@
         <v>189</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="12"/>
@@ -3198,13 +3207,13 @@
         <v>194</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="12"/>
@@ -3217,13 +3226,13 @@
         <v>199</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="12"/>
@@ -3236,13 +3245,13 @@
         <v>204</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="12"/>
@@ -3255,13 +3264,13 @@
         <v>209</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="12"/>
@@ -3274,13 +3283,13 @@
         <v>214</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="12"/>
@@ -3293,13 +3302,13 @@
         <v>219</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="12"/>
@@ -3312,13 +3321,13 @@
         <v>224</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="12"/>
@@ -3331,13 +3340,13 @@
         <v>229</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>227</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="12"/>
@@ -3350,13 +3359,13 @@
         <v>233</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="12"/>
@@ -3369,13 +3378,13 @@
         <v>238</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="12"/>
@@ -3388,13 +3397,13 @@
         <v>243</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="12"/>
@@ -3407,13 +3416,13 @@
         <v>248</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="12"/>
@@ -3426,13 +3435,13 @@
         <v>253</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="12"/>
@@ -3445,13 +3454,13 @@
         <v>258</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>260</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="12"/>
@@ -3464,13 +3473,13 @@
         <v>263</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="12"/>
@@ -3483,13 +3492,13 @@
         <v>268</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="12"/>
@@ -3502,13 +3511,13 @@
         <v>273</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="12"/>
@@ -3540,13 +3549,13 @@
         <v>281</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="12"/>
@@ -3819,9 +3828,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1813E0-148D-4F3A-AFA5-DAD19E7CF768}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A04825-A2EB-4419-843F-4B11FA6C949E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D41C23B2-E625-4776-89EB-A564936CF93D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9355AEC9-1C64-464B-974F-47A434A85047}"/>
 </file>